--- a/excel/全局配置.xlsx
+++ b/excel/全局配置.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="constant" sheetId="1" r:id="rId1"/>
+    <sheet name="ConstantCfg" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
